--- a/tests/data/input/一级测试用例-12001.xlsx
+++ b/tests/data/input/一级测试用例-12001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magfi\Documents\WXWork\1688850033340190\Cache\File\2019-07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="95">
   <si>
     <t>用例编号</t>
   </si>
@@ -95,6 +100,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,6 +111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -127,6 +134,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,6 +145,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,6 +168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -169,6 +179,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,6 +202,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,6 +213,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,6 +236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,6 +247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,6 +270,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -265,6 +281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,6 +304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -297,6 +315,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -319,6 +338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -329,6 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -351,6 +372,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -361,6 +383,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -383,6 +406,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,6 +417,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,6 +440,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -425,6 +451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -447,6 +474,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -457,6 +485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -479,6 +508,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -489,6 +519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -497,11 +528,6 @@
   </si>
   <si>
     <t>anti_idno_apply_1m</t>
-  </si>
-  <si>
-    <t>info_anti_fraud_rule.anti_fraud_rule_id;
-info_anti_fraud_rule.rule_name[0-0]='身份证一个月内多头申请过多';
-info_anti_fraud_rule.rule_memo[0-0]=='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
   </si>
   <si>
     <t>anti_idno_apply_3m</t>
@@ -558,19 +584,51 @@
     <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号七天内多头申请过多';
 info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_idno_apply_1m=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_idno_apply_3m=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_tel_apply_1m=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_tel_apply_3m=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_idno_apply_3d=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_idno_apply_7d=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_tel_apply_3d=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_tel_apply_7d=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,18 +640,13 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -601,148 +654,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,198 +682,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -978,254 +723,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1245,16 +748,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1266,75 +769,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1592,16 +1051,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1613,7 +1072,7 @@
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1645,8 +1104,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1669,8 +1130,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1693,8 +1156,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1717,8 +1182,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1741,8 +1208,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1765,8 +1234,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1789,8 +1260,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1813,8 +1286,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1837,8 +1312,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1861,8 +1338,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1885,8 +1364,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1909,8 +1390,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1933,8 +1416,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1957,8 +1442,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1981,8 +1468,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="81">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
@@ -2005,8 +1494,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
@@ -2029,8 +1520,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -2053,8 +1546,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
@@ -2077,8 +1572,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
@@ -2101,8 +1598,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
@@ -2125,8 +1624,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2149,8 +1650,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
@@ -2173,8 +1676,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
@@ -2197,8 +1702,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
@@ -2221,8 +1728,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
@@ -2245,8 +1754,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
       <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
@@ -2269,8 +1780,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
@@ -2293,8 +1806,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2317,8 +1832,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A30" s="4"/>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
       <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
@@ -2331,170 +1848,201 @@
       <c r="E30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A31" s="4"/>
-      <c r="B31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="G31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A32" s="4"/>
-      <c r="B32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="G32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A33" s="4"/>
-      <c r="B33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A34" s="4"/>
-      <c r="B34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="12" t="s">
+      <c r="G34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A35" s="4"/>
-      <c r="B35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="G35" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A36" s="4"/>
-      <c r="B36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="G36" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="81">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="81" spans="1:8">
-      <c r="A37" s="4"/>
-      <c r="B37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="D37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="H37" s="9" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>